--- a/excel/Test_Check_Key.xlsx
+++ b/excel/Test_Check_Key.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sandeepyadav/Desktop/Pysheetgrader/pysheetgrader-parent/pysheetgrader-core/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrew/git/pysheetgrader-core/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F926B69-1762-3F47-825A-387BB4D9B2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A513D71-27D3-3847-AB40-19FBB006BFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4100" windowWidth="28800" windowHeight="16460" activeTab="5" xr2:uid="{6E72627C-1CB6-4848-9B50-C1295434D515}"/>
   </bookViews>
@@ -28,6 +28,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -761,11 +772,20 @@
         <r>
           <rPr>
             <sz val="18"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>rubric:</t>
+            <color rgb="FFFF0000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>rubric</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="18"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
         </r>
         <r>
           <rPr>
@@ -1479,7 +1499,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1502,6 +1522,12 @@
     <font>
       <sz val="18"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
